--- a/MATLAB/Versuchsplan.xlsx
+++ b/MATLAB/Versuchsplan.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MATLAB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Herkules\Documents\GitHub\MA\MATLAB\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="60" windowWidth="12915" windowHeight="10035" activeTab="1"/>
+    <workbookView xWindow="600" yWindow="60" windowWidth="12915" windowHeight="10035"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -355,6 +355,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1406,6 +1407,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1744,7 +1746,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C160"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection sqref="A1:B160"/>
     </sheetView>
   </sheetViews>
@@ -3046,7 +3048,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AX14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+    <sheetView topLeftCell="AB1" workbookViewId="0">
       <selection activeCell="AB4" sqref="AB4:AB14"/>
     </sheetView>
   </sheetViews>
